--- a/EHS2019/EHS/ExcelGenerator/Template/eHSVF006-VaccinationFileTemplate.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSVF006-VaccinationFileTemplate.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\EHS2019\EHS\ExcelGenerator\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11505"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Chinese name</t>
   </si>
@@ -36,9 +41,6 @@
     <t>School Name</t>
   </si>
   <si>
-    <t>Vaccination Date</t>
-  </si>
-  <si>
     <t>Report Generation Time</t>
   </si>
   <si>
@@ -51,9 +53,6 @@
     <t>Practice Name (Practice No.)</t>
   </si>
   <si>
-    <t>Vaccination Report Generation Date</t>
-  </si>
-  <si>
     <t>No. of Class</t>
   </si>
   <si>
@@ -163,12 +162,24 @@
   </si>
   <si>
     <t>Class/Ref. No.</t>
+  </si>
+  <si>
+    <t>[1st] Vaccination Date</t>
+  </si>
+  <si>
+    <t>[1st] Vaccination Report Generation Date</t>
+  </si>
+  <si>
+    <t>[2nd Vaccination Date]</t>
+  </si>
+  <si>
+    <t>[2nd Vaccination Report Generation Date]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\ mmm\ yyyy\ hh:mm"/>
@@ -1203,6 +1214,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1250,7 +1264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1285,7 +1299,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1494,7 +1508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1519,7 +1533,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="9"/>
     </row>
@@ -1541,7 +1555,7 @@
     </row>
     <row r="7" spans="1:3" s="13" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="19"/>
@@ -1557,18 +1571,18 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="20"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="16" customFormat="1">
@@ -1580,60 +1594,74 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" s="16" customFormat="1">
       <c r="A19" s="16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" s="16" customFormat="1">
       <c r="A20" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="23"/>
-    </row>
-    <row r="22" spans="1:3" s="12" customFormat="1">
-      <c r="A22" s="13" t="s">
+    <row r="21" spans="1:3" s="16" customFormat="1">
+      <c r="A21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+    </row>
+    <row r="22" spans="1:3" s="16" customFormat="1">
+      <c r="A22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="B23" s="23"/>
     </row>
-    <row r="24" spans="1:3" s="13" customFormat="1">
+    <row r="24" spans="1:3" s="12" customFormat="1">
+      <c r="A24" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="B24" s="23"/>
       <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="24"/>
+      <c r="A25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="23"/>
+    </row>
+    <row r="26" spans="1:3" s="13" customFormat="1">
+      <c r="B26" s="23"/>
+      <c r="C26" s="19"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1666,7 +1694,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1684,13 +1712,13 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="58.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -1877,108 +1905,108 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="17" customFormat="1">
       <c r="A13" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/EHS2019/EHS/ExcelGenerator/Template/eHSVF006-VaccinationFileTemplate.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSVF006-VaccinationFileTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\EHS2019\EHS\ExcelGenerator\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swl109\Documents\GitHub\EHS\EHS2019\EHS\ExcelGenerator\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -179,16 +179,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd\ mmm\ yyyy\ hh:mm"/>
+    <numFmt numFmtId="176" formatCode="dd\ mmm\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="dd\ mmm\ yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -196,28 +196,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -225,7 +225,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -265,15 +265,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="HA_MingLiu"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -281,7 +275,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -289,7 +283,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -297,7 +291,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -434,8 +428,24 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -716,17 +726,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
@@ -753,198 +763,198 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -985,7 +995,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1019,9 +1029,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1034,13 +1041,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1049,6 +1056,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1 2" xfId="52"/>
@@ -1512,158 +1526,159 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="18" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="15.75">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="11"/>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:3" s="13" customFormat="1">
+    <row r="7" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="1:3" s="13" customFormat="1">
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="19"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="18"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="20"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="19"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="16" customFormat="1">
-      <c r="B15" s="21"/>
-      <c r="C15" s="19"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="1:3">
+    <row r="15" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="20"/>
+      <c r="C15" s="18"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-    </row>
-    <row r="19" spans="1:3" s="16" customFormat="1">
-      <c r="A19" s="16" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-    </row>
-    <row r="20" spans="1:3" s="16" customFormat="1">
-      <c r="A20" s="16" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-    </row>
-    <row r="21" spans="1:3" s="16" customFormat="1">
-      <c r="A21" s="16" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+    </row>
+    <row r="21" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-    </row>
-    <row r="22" spans="1:3" s="16" customFormat="1">
-      <c r="A22" s="16" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+    </row>
+    <row r="22" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="23"/>
-    </row>
-    <row r="24" spans="1:3" s="12" customFormat="1">
+      <c r="B23" s="22"/>
+    </row>
+    <row r="24" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="B24" s="22"/>
+      <c r="C24" s="18"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="23"/>
-    </row>
-    <row r="26" spans="1:3" s="13" customFormat="1">
-      <c r="B26" s="23"/>
-      <c r="C26" s="19"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="B25" s="22"/>
+    </row>
+    <row r="26" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="22"/>
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="23"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -1682,35 +1697,35 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="28" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="58.5" customHeight="1">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -1720,7 +1735,7 @@
       <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="26" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1730,161 +1745,162 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D53" s="15"/>
+    <row r="4" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="27"/>
+    </row>
+    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="27"/>
+    </row>
+    <row r="11" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="27"/>
+    </row>
+    <row r="22" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="27"/>
+    </row>
+    <row r="27" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="27"/>
+    </row>
+    <row r="31" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="27"/>
+    </row>
+    <row r="32" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="27"/>
+    </row>
+    <row r="34" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="27"/>
+    </row>
+    <row r="35" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="27"/>
+    </row>
+    <row r="36" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="27"/>
+    </row>
+    <row r="37" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="27"/>
+    </row>
+    <row r="38" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="27"/>
+    </row>
+    <row r="39" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="27"/>
+    </row>
+    <row r="40" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="27"/>
+    </row>
+    <row r="41" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="27"/>
+    </row>
+    <row r="42" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="27"/>
+    </row>
+    <row r="43" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="27"/>
+    </row>
+    <row r="44" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="27"/>
+    </row>
+    <row r="45" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="27"/>
+    </row>
+    <row r="46" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="27"/>
+    </row>
+    <row r="47" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="27"/>
+    </row>
+    <row r="48" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="27"/>
+    </row>
+    <row r="49" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="27"/>
+    </row>
+    <row r="50" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="27"/>
+    </row>
+    <row r="51" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="27"/>
+    </row>
+    <row r="52" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="27"/>
+    </row>
+    <row r="53" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -1901,19 +1917,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1921,7 +1937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1929,7 +1945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1937,7 +1953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1945,7 +1961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1953,7 +1969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1961,7 +1977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1969,7 +1985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1977,7 +1993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1985,7 +2001,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1993,15 +2009,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="17" customFormat="1">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2010,6 +2026,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
